--- a/ProbabilityAndStatistics/final/shapiro wilk.xlsx
+++ b/ProbabilityAndStatistics/final/shapiro wilk.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Desktop\Sem6ULSA\ULSA-6th-Semester\ProbabilityAndStatistics\final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Escritorio\ULSA-6th-Semester\ProbabilityAndStatistics\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD74EC64-029F-4ECB-A49F-D7CB0D7E7B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7392EB08-F50D-4768-83E8-F23ABF3E764B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{2E7E4959-5357-4E28-8A40-1EDED8A01903}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E7E4959-5357-4E28-8A40-1EDED8A01903}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C3AA4E-A5FA-4916-953D-02029B9CBEA3}">
   <dimension ref="A2:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23:P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
